--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/SOUTH_DAKOTA_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/SOUTH_DAKOTA_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Chínipas</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>León</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1991,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San José Independencia</t>
@@ -2004,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -2017,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2030,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2061,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -2074,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2126,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2139,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2152,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2183,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -2209,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2222,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2235,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2266,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2297,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -2310,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2341,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2372,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2403,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2416,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -2429,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -2442,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2455,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -2468,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -2481,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2494,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2507,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2520,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2551,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -2564,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2577,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2590,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
